--- a/Tax_Burden_by_City.xlsx
+++ b/Tax_Burden_by_City.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Tax Burden (%)</t>
+          <t>Sales_Tax</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Property Tax Burden (%)</t>
+          <t>Income_Tax</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Income Tax Burden (%)</t>
+          <t xml:space="preserve">Property_Tax </t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Total Sales &amp; Excise Tax Burden (%)</t>
+          <t>License_Tax</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Tax</t>
         </is>
       </c>
     </row>
@@ -477,16 +482,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0803</v>
+        <v>2996</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0186</v>
+        <v>1631</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0113</v>
+        <v>109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0504</v>
+        <v>272</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5008</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +509,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0765</v>
+        <v>7556</v>
       </c>
       <c r="D3" t="n">
-        <v>0.025</v>
+        <v>10679</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0236</v>
+        <v>862</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0279</v>
+        <v>626</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19723</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +536,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0756</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0371</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
+        <v>47654</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.0385</v>
+        <v>3427</v>
+      </c>
+      <c r="G4" t="n">
+        <v>51081</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +559,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0926</v>
+        <v>8299</v>
       </c>
       <c r="D5" t="n">
-        <v>0.026</v>
+        <v>9350</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04</v>
+        <v>738</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0266</v>
+        <v>851</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19238</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +586,17 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0786</v>
+        <v>1941</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0212</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0247</v>
-      </c>
+        <v>1695</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.0327</v>
+        <v>333</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3969</v>
       </c>
     </row>
     <row r="7">
@@ -593,20 +607,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NH</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0563</v>
+        <v>8274</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0451</v>
+        <v>16719</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0015</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0097</v>
+        <v>1213</v>
+      </c>
+      <c r="G7" t="n">
+        <v>26211</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +638,17 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1202</v>
+        <v>23970</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0436</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0463</v>
-      </c>
+        <v>48798</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.0303</v>
+        <v>1764</v>
+      </c>
+      <c r="G8" t="n">
+        <v>74532</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +663,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.08450000000000001</v>
+        <v>2619</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0222</v>
+        <v>2121</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0261</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0362</v>
+        <v>139</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4886</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +690,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.075</v>
+        <v>4892</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0263</v>
+        <v>4119</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0287</v>
+        <v>524</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9561</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +717,17 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0789</v>
+        <v>10713</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0268</v>
-      </c>
+        <v>12528</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.0321</v>
+        <v>1753</v>
+      </c>
+      <c r="G11" t="n">
+        <v>24994</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +742,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.08450000000000001</v>
+        <v>6495</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0289</v>
+        <v>12722</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0298</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0258</v>
+        <v>829</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20079</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +769,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.09669999999999999</v>
+        <v>16103</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0367</v>
+        <v>19968</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0257</v>
+        <v>61</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0343</v>
+        <v>2730</v>
+      </c>
+      <c r="G13" t="n">
+        <v>38862</v>
       </c>
     </row>
     <row r="14">
@@ -765,16 +796,17 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0607</v>
+        <v>9196</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0164</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0005</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.0438</v>
+        <v>1503</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12402</v>
       </c>
     </row>
     <row r="15">
@@ -789,16 +821,17 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0892</v>
+        <v>17214</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0272</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0248</v>
-      </c>
+        <v>8886</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>0.0372</v>
+        <v>2171</v>
+      </c>
+      <c r="G15" t="n">
+        <v>28271</v>
       </c>
     </row>
     <row r="16">
@@ -813,16 +846,17 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0842</v>
+        <v>4789</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0293</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0249</v>
-      </c>
+        <v>7048</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.03</v>
+        <v>681</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12518</v>
       </c>
     </row>
     <row r="17">
@@ -833,20 +867,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0765</v>
+        <v>4936</v>
       </c>
       <c r="D17" t="n">
-        <v>0.025</v>
+        <v>3870</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0236</v>
+        <v>337</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0279</v>
+        <v>494</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9637</v>
       </c>
     </row>
     <row r="18">
@@ -861,16 +898,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0885</v>
+        <v>10591</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0214</v>
+        <v>6137</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0306</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0365</v>
+        <v>656</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17393</v>
       </c>
     </row>
     <row r="19">
@@ -885,16 +925,17 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0892</v>
+        <v>17214</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0272</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0248</v>
-      </c>
+        <v>8886</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.0372</v>
+        <v>2171</v>
+      </c>
+      <c r="G19" t="n">
+        <v>28271</v>
       </c>
     </row>
     <row r="20">
@@ -909,16 +950,15 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0756</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.0371</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
+        <v>47654</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0.0385</v>
+        <v>3427</v>
+      </c>
+      <c r="G20" t="n">
+        <v>51081</v>
       </c>
     </row>
     <row r="21">
@@ -933,16 +973,17 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0842</v>
+        <v>4789</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0293</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0249</v>
-      </c>
+        <v>7048</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.03</v>
+        <v>681</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12518</v>
       </c>
     </row>
     <row r="22">
@@ -957,16 +998,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0921</v>
+        <v>4269</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0339</v>
+        <v>3935</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0239</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0343</v>
+        <v>875</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9081</v>
       </c>
     </row>
     <row r="23">
@@ -981,16 +1025,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.08019999999999999</v>
+        <v>13124</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0294</v>
+        <v>10011</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0223</v>
+        <v>1963</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0285</v>
+        <v>1564</v>
+      </c>
+      <c r="G23" t="n">
+        <v>26662</v>
       </c>
     </row>
     <row r="24">
@@ -1005,16 +1052,17 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1008</v>
+        <v>6562</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0395</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.0342</v>
-      </c>
+        <v>8872</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.0271</v>
+        <v>453</v>
+      </c>
+      <c r="G24" t="n">
+        <v>15887</v>
       </c>
     </row>
     <row r="25">
@@ -1029,16 +1077,15 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0756</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.0371</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
+        <v>47654</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0.0385</v>
+        <v>3427</v>
+      </c>
+      <c r="G25" t="n">
+        <v>51081</v>
       </c>
     </row>
     <row r="26">
@@ -1053,16 +1100,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0752</v>
+        <v>4936</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0133</v>
+        <v>3870</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0201</v>
+        <v>337</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0418</v>
+        <v>494</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9637</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1127,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0885</v>
+        <v>10591</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0214</v>
+        <v>6137</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0306</v>
+        <v>9</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0365</v>
+        <v>656</v>
+      </c>
+      <c r="G27" t="n">
+        <v>17393</v>
       </c>
     </row>
     <row r="28">
@@ -1101,16 +1154,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0929</v>
+        <v>3978</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0304</v>
+        <v>2721</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0267</v>
+        <v>659</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0358</v>
+        <v>378</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7736</v>
       </c>
     </row>
     <row r="29">
@@ -1125,16 +1181,17 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0737</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.0202</v>
-      </c>
+        <v>6039</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0535</v>
+        <v>649</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6930</v>
       </c>
     </row>
     <row r="30">
@@ -1149,16 +1206,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.104</v>
+        <v>52347</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0273</v>
+        <v>86937</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0487</v>
+        <v>2316</v>
       </c>
       <c r="F30" t="n">
-        <v>0.028</v>
+        <v>9422</v>
+      </c>
+      <c r="G30" t="n">
+        <v>151022</v>
       </c>
     </row>
     <row r="31">
@@ -1173,16 +1233,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.08790000000000001</v>
+        <v>4410</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0165</v>
+        <v>3141</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0226</v>
+        <v>1088</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0488</v>
+        <v>384</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9023</v>
       </c>
     </row>
     <row r="32">
@@ -1197,16 +1260,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0605</v>
+        <v>30336</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0261</v>
+        <v>2238</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0344</v>
+        <v>2139</v>
+      </c>
+      <c r="G32" t="n">
+        <v>34713.07</v>
       </c>
     </row>
     <row r="33">
@@ -1221,16 +1287,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0832</v>
+        <v>7647</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0298</v>
+        <v>8102</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0257</v>
+        <v>165</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0277</v>
+        <v>1027</v>
+      </c>
+      <c r="G33" t="n">
+        <v>16941</v>
       </c>
     </row>
     <row r="34">
@@ -1245,16 +1314,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.09950000000000001</v>
+        <v>9953</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0282</v>
+        <v>11847</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0401</v>
+        <v>839</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0312</v>
+        <v>1392</v>
+      </c>
+      <c r="G34" t="n">
+        <v>24031</v>
       </c>
     </row>
     <row r="35">
@@ -1269,16 +1341,17 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0607</v>
+        <v>9196</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0164</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.0005</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>0.0438</v>
+        <v>1503</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12402</v>
       </c>
     </row>
     <row r="36">
@@ -1293,16 +1366,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.0829</v>
+        <v>5308</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0183</v>
+        <v>3237</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0157</v>
+        <v>57</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0489</v>
+        <v>386</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8988</v>
       </c>
     </row>
     <row r="37">
@@ -1313,20 +1389,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.1202</v>
+        <v>12952</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0436</v>
+        <v>15829</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0463</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0303</v>
+        <v>1553</v>
+      </c>
+      <c r="G37" t="n">
+        <v>30339</v>
       </c>
     </row>
     <row r="38">
@@ -1341,16 +1420,17 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.0704</v>
+        <v>4136</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0171</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.0175</v>
-      </c>
+        <v>3641</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>0.0358</v>
+        <v>1056</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8833</v>
       </c>
     </row>
     <row r="39">
@@ -1365,16 +1445,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0921</v>
+        <v>4269</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0339</v>
+        <v>3935</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0239</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0343</v>
+        <v>875</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9081</v>
       </c>
     </row>
     <row r="40">
@@ -1389,16 +1472,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0605</v>
+        <v>30336</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0261</v>
+        <v>2238</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0344</v>
+        <v>2139</v>
+      </c>
+      <c r="G40" t="n">
+        <v>34713.07</v>
       </c>
     </row>
     <row r="41">
@@ -1409,20 +1495,21 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.09470000000000001</v>
+        <v>499</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0459</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.0236</v>
-      </c>
+        <v>1541</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>0.0252</v>
+        <v>1390</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3430</v>
       </c>
     </row>
     <row r="42">
@@ -1437,16 +1524,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0779</v>
+        <v>8246</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0226</v>
+        <v>4452</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0162</v>
+        <v>883</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0391</v>
+        <v>459</v>
+      </c>
+      <c r="G42" t="n">
+        <v>14040</v>
       </c>
     </row>
     <row r="43">
@@ -1461,16 +1551,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.08359999999999999</v>
+        <v>18370</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0262</v>
+        <v>13999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0264</v>
+        <v>42</v>
       </c>
       <c r="F43" t="n">
-        <v>0.031</v>
+        <v>2222</v>
+      </c>
+      <c r="G43" t="n">
+        <v>34633</v>
       </c>
     </row>
     <row r="44">
@@ -1485,16 +1578,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.1074</v>
+        <v>1999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0486</v>
+        <v>1702</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0259</v>
+        <v>37</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0329</v>
+        <v>268</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4006</v>
       </c>
     </row>
     <row r="45">
@@ -1509,16 +1605,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0844</v>
+        <v>1499</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0295</v>
+        <v>7931</v>
       </c>
       <c r="E45" t="n">
-        <v>0.043</v>
+        <v>20</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0119</v>
+        <v>987</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10437</v>
       </c>
     </row>
     <row r="46">
@@ -1529,20 +1628,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.09379999999999999</v>
+        <v>8274</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0383</v>
+        <v>16719</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0249</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0306</v>
+        <v>1213</v>
+      </c>
+      <c r="G46" t="n">
+        <v>26211</v>
       </c>
     </row>
     <row r="47">
@@ -1557,16 +1659,17 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0789</v>
+        <v>10713</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.0268</v>
-      </c>
+        <v>12528</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>0.0321</v>
+        <v>1753</v>
+      </c>
+      <c r="G47" t="n">
+        <v>24994</v>
       </c>
     </row>
     <row r="48">
@@ -1581,16 +1684,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.104</v>
+        <v>52347</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0273</v>
+        <v>86937</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0487</v>
+        <v>2316</v>
       </c>
       <c r="F48" t="n">
-        <v>0.028</v>
+        <v>9422</v>
+      </c>
+      <c r="G48" t="n">
+        <v>151022</v>
       </c>
     </row>
     <row r="49">
@@ -1605,16 +1711,17 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0935</v>
+        <v>2767</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0219</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.0357</v>
-      </c>
+        <v>3526</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>0.0359</v>
+        <v>280</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6573</v>
       </c>
     </row>
     <row r="50">
@@ -1629,16 +1736,15 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0756</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.0371</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
+        <v>47654</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>0.0385</v>
+        <v>3427</v>
+      </c>
+      <c r="G50" t="n">
+        <v>51081</v>
       </c>
     </row>
     <row r="51">
@@ -1653,16 +1759,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.104</v>
+        <v>52347</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0273</v>
+        <v>86937</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0487</v>
+        <v>2316</v>
       </c>
       <c r="F51" t="n">
-        <v>0.028</v>
+        <v>9422</v>
+      </c>
+      <c r="G51" t="n">
+        <v>151022</v>
       </c>
     </row>
     <row r="52">
@@ -1677,16 +1786,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.104</v>
+        <v>52347</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0273</v>
+        <v>86937</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0487</v>
+        <v>2316</v>
       </c>
       <c r="F52" t="n">
-        <v>0.028</v>
+        <v>9422</v>
+      </c>
+      <c r="G52" t="n">
+        <v>151022</v>
       </c>
     </row>
     <row r="53">
@@ -1701,16 +1813,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.104</v>
+        <v>52347</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0273</v>
+        <v>86937</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0487</v>
+        <v>2316</v>
       </c>
       <c r="F53" t="n">
-        <v>0.028</v>
+        <v>9422</v>
+      </c>
+      <c r="G53" t="n">
+        <v>151022</v>
       </c>
     </row>
     <row r="54">
@@ -1725,16 +1840,17 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0804</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.0258</v>
-      </c>
+        <v>16241</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0546</v>
+        <v>1397</v>
+      </c>
+      <c r="G54" t="n">
+        <v>19656</v>
       </c>
     </row>
     <row r="55">
@@ -1749,16 +1865,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.09669999999999999</v>
+        <v>16103</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0367</v>
+        <v>19968</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0257</v>
+        <v>61</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0343</v>
+        <v>2730</v>
+      </c>
+      <c r="G55" t="n">
+        <v>38862</v>
       </c>
     </row>
     <row r="56">
@@ -1773,16 +1892,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.09470000000000001</v>
+        <v>12952</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0459</v>
+        <v>15829</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0236</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0252</v>
+        <v>1553</v>
+      </c>
+      <c r="G56" t="n">
+        <v>30339</v>
       </c>
     </row>
     <row r="57">
@@ -1797,16 +1919,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0926</v>
+        <v>8299</v>
       </c>
       <c r="D57" t="n">
-        <v>0.026</v>
+        <v>9350</v>
       </c>
       <c r="E57" t="n">
-        <v>0.04</v>
+        <v>738</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0266</v>
+        <v>851</v>
+      </c>
+      <c r="G57" t="n">
+        <v>19238</v>
       </c>
     </row>
   </sheetData>
